--- a/Traceability_Matrix_Docler.xlsx
+++ b/Traceability_Matrix_Docler.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21552" windowHeight="8628" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21552" windowHeight="9852" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,41 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Tamás Bondár</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tamás Bondár:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+TC - TestNG Test Case Number
+CTC - Cucumber Test Case Number</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -271,7 +306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +382,19 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -562,21 +610,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -652,6 +685,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,13 +1029,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1063,37 +1111,37 @@
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="45"/>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="C11" s="46"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="47" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="47"/>
     </row>
     <row r="13" spans="1:3" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="48"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1105,60 +1153,60 @@
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="47"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="19"/>
+      <c r="C16" s="49"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="49"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="49"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="49"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="49"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="49"/>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1175,14 +1223,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1190,589 +1238,590 @@
     <col min="1" max="1" width="20.21875" customWidth="1"/>
     <col min="2" max="12" width="13.21875" customWidth="1"/>
     <col min="13" max="13" width="22" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="40" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:18" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="39"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:18" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-    </row>
-    <row r="3" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="N2" s="23"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+    </row>
+    <row r="3" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="26"/>
+      <c r="B4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="26"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="26"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="26"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="26"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="26"/>
-    </row>
-    <row r="10" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="21"/>
+    </row>
+    <row r="10" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="31"/>
+      <c r="B10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="26"/>
+      <c r="B11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="26"/>
+      <c r="B12" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="26"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="26"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="26"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="26"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="27"/>
-      <c r="N17" s="26"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="22"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="26"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="26"/>
-    </row>
-    <row r="20" spans="1:15" s="24" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="21"/>
+    </row>
+    <row r="20" spans="1:15" s="19" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="24">
         <f>COUNTIF(B4:B19,"x")</f>
         <v>4</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="24">
         <f t="shared" ref="C20:M20" si="0">COUNTIF(C4:C19,"x")</f>
         <v>4</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L20" s="29">
+      <c r="L20" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M20" s="44">
+      <c r="M20" s="39">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="40">
         <f>IF(B20&gt;0,100%,0%)</f>
         <v>1</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="40">
         <f t="shared" ref="C21:M21" si="1">IF(C20&gt;0,100%,0%)</f>
         <v>1</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J21" s="45">
+      <c r="J21" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K21" s="45">
+      <c r="K21" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L21" s="45">
+      <c r="L21" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M21" s="46">
+      <c r="M21" s="41">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N21" s="48">
+      <c r="N21" s="43">
         <f>AVERAGE(B21:M21)</f>
         <v>1</v>
       </c>
-      <c r="O21" s="47" t="s">
+      <c r="O21" s="42" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>